--- a/biology/Histoire de la zoologie et de la botanique/Jack_Harlan/Jack_Harlan.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jack_Harlan/Jack_Harlan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jack Rodney Harlan, né le 7 juin 1917 à Washington, DC et mort le 26 août 1998 à La Nouvelle-Orléans[1], est un botaniste et agronome américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jack Rodney Harlan, né le 7 juin 1917 à Washington, DC et mort le 26 août 1998 à La Nouvelle-Orléans, est un botaniste et agronome américain.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jack Harlan était titulaire d'un baccalauréat (B.S.)  de l'Université George Washington (Washington) obtenu en 1938 et d'un doctorat en génétique (Ph.D.) de l'université de Californie obtenu en 1942. 
 Il a travaillé pour le ministère américain de l'Agriculture (USDA) de 1942 à 1961. 
 En tant que membre du corps professoral de l'université d'État de l'Oklahoma, il refusa de signer un serment de loyauté ; il exerça ensuite comme professeur de génétique des plantes à l'université de l'Illinois à Urbana-Champaign, où il participa à la création du laboratoire sur l'évolution des plantes cultivées (Crop Evolution Laboratory) en 1966. 
-Il partit à La Nouvelle-Orléans (Louisiane) dans les années 1980 et exerça la fonction de professeur auxiliaire à l'université Tulane[2]
+Il partit à La Nouvelle-Orléans (Louisiane) dans les années 1980 et exerça la fonction de professeur auxiliaire à l'université Tulane
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harlan a publié de nombreux articles dans le domaine de la biodiversité des plantes cultivées et fait connaître ses préoccupations sur la contribution des pratiques de l'agriculture moderne à l'extinction des variétés anciennes et traditionnelles de plantes cultivées[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harlan a publié de nombreux articles dans le domaine de la biodiversité des plantes cultivées et fait connaître ses préoccupations sur la contribution des pratiques de l'agriculture moderne à l'extinction des variétés anciennes et traditionnelles de plantes cultivées,.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>John Simon Guggenheim Memorial Fellowship (1959)
 American Grassland Council Merit Award (1962)
